--- a/biology/Botanique/Manuel_de_foresterie/Manuel_de_foresterie.xlsx
+++ b/biology/Botanique/Manuel_de_foresterie/Manuel_de_foresterie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Manuel de foresterie est l’ouvrage de référence le plus complet sur la sylviculture québécoise.  Il s’agit d’un document technique et scientifique qui met l'accent sur la pratique sans toutefois négliger la théorie.  Le document se veut être l’outil de base des praticiens forestiers, mais il est aussi incontournable pour les étudiants de foresterie et les spécialistes des sciences connexes.  Une première édition a été publiée en 1996 et une deuxième en 2009.
 </t>
@@ -511,12 +523,48 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première édition, 1996, Éditeurs : Presses de l'Université Laval et Ordre des ingénieurs forestiers du Québec, xviii, 1428 pages,  (ISBN 2763774792)
-Seconde édition, 2009, Éditeurs : Éditions MultiMondes et Ordre des ingénieurs forestiers du Québec, xxix, 1510 pages,  (ISBN 9782895441380)
-Table des matières de la seconde édition
-Introduction - xxix
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Première édition, 1996, Éditeurs : Presses de l'Université Laval et Ordre des ingénieurs forestiers du Québec, xviii, 1428 pages,  (ISBN 2763774792)
+Seconde édition, 2009, Éditeurs : Éditions MultiMondes et Ordre des ingénieurs forestiers du Québec, xxix, 1510 pages,  (ISBN 9782895441380)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Manuel_de_foresterie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Manuel_de_foresterie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Table des matières de la seconde édition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction - xxix
 Partie I – Le milieu forestier
 Chapitre 1. Les biomes forestiers de la Terre – 3.
 Chapitre 2. Géologie, dépôts de surface et sols forestiers – 47.
